--- a/数据整理/stocks/A股/科创板/688033-天宜上佳.xlsx
+++ b/数据整理/stocks/A股/科创板/688033-天宜上佳.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,49 +22,79 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>009490</t>
+  </si>
+  <si>
+    <t>002934</t>
+  </si>
+  <si>
     <t>005823</t>
   </si>
   <si>
+    <t>000433</t>
+  </si>
+  <si>
+    <t>002935</t>
+  </si>
+  <si>
     <t>005824</t>
   </si>
   <si>
-    <t>000433</t>
-  </si>
-  <si>
-    <t>002934</t>
-  </si>
-  <si>
-    <t>002935</t>
-  </si>
-  <si>
-    <t>009490</t>
+    <t>泰康科技创新一年定期开放混合</t>
+  </si>
+  <si>
+    <t>泰康恒泰回报灵活配置混合A</t>
   </si>
   <si>
     <t>泰康颐享混合A</t>
   </si>
   <si>
+    <t>安信鑫发优选混合</t>
+  </si>
+  <si>
+    <t>泰康恒泰回报灵活配置混合C</t>
+  </si>
+  <si>
     <t>泰康颐享混合C</t>
   </si>
   <si>
-    <t>安信鑫发优选混合</t>
-  </si>
-  <si>
-    <t>泰康恒泰回报灵活配置混合A</t>
-  </si>
-  <si>
-    <t>泰康恒泰回报灵活配置混合C</t>
-  </si>
-  <si>
-    <t>泰康科技创新一年定期开放混合</t>
+    <t>3.91</t>
+  </si>
+  <si>
+    <t>6.66</t>
+  </si>
+  <si>
+    <t>6.19</t>
+  </si>
+  <si>
+    <t>2.09</t>
+  </si>
+  <si>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>3.19</t>
+  </si>
+  <si>
+    <t>87.81</t>
+  </si>
+  <si>
+    <t>27.77</t>
   </si>
   <si>
     <t>27.26</t>
@@ -73,10 +103,7 @@
     <t>78.93</t>
   </si>
   <si>
-    <t>27.77</t>
-  </si>
-  <si>
-    <t>87.81</t>
+    <t>4.33</t>
   </si>
   <si>
     <t>1.11</t>
@@ -85,7 +112,22 @@
     <t>3.05</t>
   </si>
   <si>
-    <t>4.33</t>
+    <t>0.1693</t>
+  </si>
+  <si>
+    <t>0.0739</t>
+  </si>
+  <si>
+    <t>0.0687</t>
+  </si>
+  <si>
+    <t>0.0637</t>
+  </si>
+  <si>
+    <t>0.0370</t>
+  </si>
+  <si>
+    <t>0.0354</t>
   </si>
 </sst>
 </file>
@@ -443,13 +485,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,124 +507,166 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688033-天宜上佳.xlsx
+++ b/数据整理/stocks/A股/科创板/688033-天宜上佳.xlsx
@@ -1,165 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>009490</t>
-  </si>
-  <si>
-    <t>002934</t>
-  </si>
-  <si>
-    <t>005823</t>
-  </si>
-  <si>
-    <t>000433</t>
-  </si>
-  <si>
-    <t>002935</t>
-  </si>
-  <si>
-    <t>005824</t>
-  </si>
-  <si>
-    <t>泰康科技创新一年定期开放混合</t>
-  </si>
-  <si>
-    <t>泰康恒泰回报灵活配置混合A</t>
-  </si>
-  <si>
-    <t>泰康颐享混合A</t>
-  </si>
-  <si>
-    <t>安信鑫发优选混合</t>
-  </si>
-  <si>
-    <t>泰康恒泰回报灵活配置混合C</t>
-  </si>
-  <si>
-    <t>泰康颐享混合C</t>
-  </si>
-  <si>
-    <t>3.91</t>
-  </si>
-  <si>
-    <t>6.66</t>
-  </si>
-  <si>
-    <t>6.19</t>
-  </si>
-  <si>
-    <t>2.09</t>
-  </si>
-  <si>
-    <t>3.33</t>
-  </si>
-  <si>
-    <t>3.19</t>
-  </si>
-  <si>
-    <t>87.81</t>
-  </si>
-  <si>
-    <t>27.77</t>
-  </si>
-  <si>
-    <t>27.26</t>
-  </si>
-  <si>
-    <t>78.93</t>
-  </si>
-  <si>
-    <t>4.33</t>
-  </si>
-  <si>
-    <t>1.11</t>
-  </si>
-  <si>
-    <t>3.05</t>
-  </si>
-  <si>
-    <t>0.1693</t>
-  </si>
-  <si>
-    <t>0.0739</t>
-  </si>
-  <si>
-    <t>0.0687</t>
-  </si>
-  <si>
-    <t>0.0637</t>
-  </si>
-  <si>
-    <t>0.0370</t>
-  </si>
-  <si>
-    <t>0.0354</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -182,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -484,193 +446,455 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1693</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3177</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688033-天宜上佳.xlsx
+++ b/数据整理/stocks/A股/科创板/688033-天宜上佳.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,1086 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8253</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5808</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0898</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6782</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011353</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融景盛一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3127</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2992</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>550003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信保诚盛世蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2372</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1838</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010683</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>165512</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信诚新机遇混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>72.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004008</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004009</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011354</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融景盛一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010684</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688033-天宜上佳.xlsx
+++ b/数据整理/stocks/A股/科创板/688033-天宜上佳.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1980,4 +1981,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688033-天宜上佳.xlsx
+++ b/数据整理/stocks/A股/科创板/688033-天宜上佳.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1989,7 +1990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2000,17 +2001,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2020,14 +2041,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>27</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.69</v>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9624</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2036,14 +2079,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.46</v>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6101</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2052,13 +2117,1877 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>47.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3652</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011236</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8060</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7875</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5409</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4536</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4338</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3022</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011201</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2472</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2266</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>550003</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信保诚盛世蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1999</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1960</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1925</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011237</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1421</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>165512</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信诚新机遇混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011743</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006557</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>501001</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>财通多策略精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004008</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>31.22</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>860006</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011744</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004009</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>31.22</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011202</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006556</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014641</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>860055</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>860056</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>49</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688033-天宜上佳.xlsx
+++ b/数据整理/stocks/A股/科创板/688033-天宜上佳.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3902,7 +3903,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3913,17 +3914,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3933,14 +3954,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>49</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.46</v>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9844</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3949,14 +3992,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>27</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.69</v>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2448</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3965,14 +4030,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.46</v>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5307</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3981,13 +4068,909 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011236</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8708</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3943</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2969</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011237</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1435</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014641</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.220000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>49</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688033-天宜上佳.xlsx
+++ b/数据整理/stocks/A股/科创板/688033-天宜上佳.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4869,7 +4870,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4880,17 +4881,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4900,14 +4921,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.220000000000001</v>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2814</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -4916,14 +4959,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>49</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.46</v>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6023</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -4932,14 +4997,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.69</v>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4087</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -4948,14 +5035,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.46</v>
+          <t>011236</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7374</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -4964,13 +5073,1151 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4115</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3883</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013883</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011237</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1537</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014963</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005536</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>渤海汇金量化成长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014871</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014641</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015057</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.220000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>49</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688033-天宜上佳.xlsx
+++ b/数据整理/stocks/A股/科创板/688033-天宜上佳.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,281 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009490</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰康科技创新一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.81</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1693</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.09</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002934</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰康恒泰回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>27.77</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0739</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.220000000000001</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005823</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰康颐享混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>27.26</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0687</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>49</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.46</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000433</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>安信鑫发优选混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>78.93</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0637</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.69</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002935</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>泰康恒泰回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>27.77</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0370</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005824</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泰康颐享混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>27.26</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0354</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -740,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -761,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -791,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008980</t>
+          <t>519704</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中邮科技创新精选混合A</t>
+          <t>交银先进制造混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>81.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.86</t>
+          <t>76.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3177</t>
+          <t>2.2814</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -829,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008981</t>
+          <t>010936</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中邮科技创新精选混合C</t>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>57.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.86</t>
+          <t>82.04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1372</t>
+          <t>1.6023</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -867,36 +715,1096 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005128</t>
+          <t>009402</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏永康添福混合</t>
+          <t>交银施罗德启明混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>51.98</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>26.52</t>
+          <t>74.81</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0039</t>
+          <t>1.4087</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011236</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7374</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4115</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3883</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013883</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011237</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1537</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014963</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005536</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>渤海汇金量化成长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014871</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014641</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015057</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -910,7 +1818,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -931,7 +1839,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -961,36 +1869,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519704</t>
+          <t>010936</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银先进制造混合</t>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>82.61</t>
+          <t>96.27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.23</t>
+          <t>87.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.8253</t>
+          <t>2.9844</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -999,36 +1907,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010936</t>
+          <t>519704</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银施罗德均衡成长一年持有期混合A</t>
+          <t>交银先进制造混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>80.15</t>
+          <t>75.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>72.43</t>
+          <t>86.31</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.5808</t>
+          <t>2.2448</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1047,26 +1955,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>37.58</t>
+          <t>51.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.07</t>
+          <t>82.62</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0898</t>
+          <t>1.5307</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1075,36 +1983,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006314</t>
+          <t>011236</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中融策略优选混合A</t>
+          <t>上投摩根行业睿选股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15.31</t>
+          <t>32.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>86.31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6782</t>
+          <t>0.8708</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1113,36 +2021,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011353</t>
+          <t>370024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中融景盛一年持有期混合型证券投资基金A</t>
+          <t>上投摩根核心优选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>38.61</t>
+          <t>13.74</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>20.57</t>
+          <t>85.27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3127</t>
+          <t>0.3943</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1151,36 +2059,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>163302</t>
+          <t>377530</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大摩资源优选混合(LOF)</t>
+          <t>上投摩根行业轮动混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>10.38</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>85.54</t>
+          <t>86.32</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2992</t>
+          <t>0.2969</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1189,32 +2097,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>550003</t>
+          <t>011237</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中信保诚盛世蓝筹混合</t>
+          <t>上投摩根行业睿选股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.47</t>
+          <t>86.31</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2372</t>
+          <t>0.1463</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1227,36 +2135,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>550001</t>
+          <t>002707</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>信诚四季红混合</t>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>86.06</t>
+          <t>93.05</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1838</t>
+          <t>0.1435</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1265,36 +2173,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002934</t>
+          <t>011446</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>泰康恒泰回报灵活配置混合A</t>
+          <t>长江新能源产业混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12.08</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>22.78</t>
+          <t>75.86</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1510</t>
+          <t>0.0945</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1303,36 +2211,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005823</t>
+          <t>010937</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>泰康颐享混合A</t>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12.64</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>23.36</t>
+          <t>87.48</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1277</t>
+          <t>0.0775</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1341,36 +2249,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002707</t>
+          <t>010697</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+          <t>中融行业先锋6个月持有期混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>91.97</t>
+          <t>89.23</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1167</t>
+          <t>0.0669</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1379,36 +2287,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010683</t>
+          <t>960006</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中融景颐6个月持有期混合A</t>
+          <t>上投摩根行业轮动混合H</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7.47</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>32.74</t>
+          <t>86.32</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1083</t>
+          <t>0.0572</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1417,36 +2325,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>165512</t>
+          <t>010987</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>信诚新机遇混合(LOF)</t>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>90.03</t>
+          <t>84.48</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1068</t>
+          <t>0.0553</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1455,36 +2363,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006315</t>
+          <t>004671</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中融策略优选混合C</t>
+          <t>中融核心成长灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>92.05</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1059</t>
+          <t>0.0526</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1493,32 +2401,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009490</t>
+          <t>010008</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>泰康科技创新一年定期开放混合</t>
+          <t>中融成长优选混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>84.46</t>
+          <t>92.83</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1047</t>
+          <t>0.0489</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1531,36 +2439,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>002935</t>
+          <t>008422</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>泰康恒泰回报灵活配置混合C</t>
+          <t>中融研发创新混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>22.78</t>
+          <t>32.66</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0919</t>
+          <t>0.0418</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1569,36 +2477,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010937</t>
+          <t>011603</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>交银施罗德均衡成长一年持有期混合C</t>
+          <t>兴业高端制造混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>72.43</t>
+          <t>76.40</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0905</t>
+          <t>0.0319</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1607,36 +2515,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010987</t>
+          <t>001365</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中融鑫锐研究精选一年持有期混合A</t>
+          <t>大成正向回报灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>91.36</t>
+          <t>75.86</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0898</t>
+          <t>0.0228</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1645,36 +2553,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>005824</t>
+          <t>010009</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>泰康颐享混合C</t>
+          <t>中融成长优选混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7.23</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23.36</t>
+          <t>92.83</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0730</t>
+          <t>0.0204</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1683,36 +2591,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>003145</t>
+          <t>011604</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中融竞争优势股票</t>
+          <t>兴业高端制造混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>93.89</t>
+          <t>76.40</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0615</t>
+          <t>0.0145</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1721,36 +2629,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>004008</t>
+          <t>010988</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中融鑫思路灵活配置混合A</t>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>27.90</t>
+          <t>84.48</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0607</t>
+          <t>0.0113</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1759,36 +2667,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>011284</t>
+          <t>008423</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中信保诚龙腾精选混合</t>
+          <t>中融研发创新混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>78.02</t>
+          <t>32.66</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0598</t>
+          <t>0.0112</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1797,36 +2705,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>006209</t>
+          <t>010698</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中信保诚新蓝筹灵活配置混合</t>
+          <t>中融行业先锋6个月持有期混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>86.81</t>
+          <t>89.23</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0477</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1835,150 +2743,34 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>004009</t>
+          <t>014641</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中融鑫思路灵活配置混合C</t>
+          <t>上投摩根行业轮动混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>27.90</t>
+          <t>86.32</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0296</t>
-        </is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>011354</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>中融景盛一年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>20.57</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0215</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>010988</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>中融鑫锐研究精选一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>91.36</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0167</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>010684</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>中融景颐6个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>32.74</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0157</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3904,7 +4696,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3925,7 +4717,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3955,36 +4747,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010936</t>
+          <t>519704</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银施罗德均衡成长一年持有期混合A</t>
+          <t>交银先进制造混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>96.27</t>
+          <t>82.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.48</t>
+          <t>85.23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.9844</t>
+          <t>2.8253</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3993,36 +4785,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519704</t>
+          <t>010936</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银先进制造混合</t>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>75.33</t>
+          <t>80.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.31</t>
+          <t>72.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.2448</t>
+          <t>2.5808</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4041,26 +4833,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>51.54</t>
+          <t>37.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.62</t>
+          <t>80.07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.5307</t>
+          <t>1.0898</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4069,36 +4861,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011236</t>
+          <t>006314</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上投摩根行业睿选股票A</t>
+          <t>中融策略优选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32.37</t>
+          <t>15.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.31</t>
+          <t>93.84</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8708</t>
+          <t>0.6782</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -4107,36 +4899,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>370024</t>
+          <t>011353</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上投摩根核心优选混合</t>
+          <t>中融景盛一年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13.74</t>
+          <t>38.61</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85.27</t>
+          <t>20.57</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3943</t>
+          <t>0.3127</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -4145,36 +4937,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>377530</t>
+          <t>163302</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上投摩根行业轮动混合A</t>
+          <t>大摩资源优选混合(LOF)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.38</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.32</t>
+          <t>85.54</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2969</t>
+          <t>0.2992</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -4183,32 +4975,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011237</t>
+          <t>550003</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上投摩根行业睿选股票C</t>
+          <t>中信保诚盛世蓝筹混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>86.31</t>
+          <t>91.47</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1463</t>
+          <t>0.2372</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -4221,36 +5013,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002707</t>
+          <t>550001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+          <t>信诚四季红混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>86.06</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1435</t>
+          <t>0.1838</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -4259,36 +5051,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011446</t>
+          <t>002934</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>长江新能源产业混合A</t>
+          <t>泰康恒泰回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>12.08</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>75.86</t>
+          <t>22.78</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0945</t>
+          <t>0.1510</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -4297,36 +5089,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010937</t>
+          <t>005823</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>交银施罗德均衡成长一年持有期混合C</t>
+          <t>泰康颐享混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>12.64</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>87.48</t>
+          <t>23.36</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0775</t>
+          <t>0.1277</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -4335,36 +5127,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010697</t>
+          <t>002707</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中融行业先锋6个月持有期混合A</t>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>91.97</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0669</t>
+          <t>0.1167</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -4373,36 +5165,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>960006</t>
+          <t>010683</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>上投摩根行业轮动混合H</t>
+          <t>中融景颐6个月持有期混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>7.47</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>86.32</t>
+          <t>32.74</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0572</t>
+          <t>0.1083</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -4411,36 +5203,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010987</t>
+          <t>165512</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中融鑫锐研究精选一年持有期混合A</t>
+          <t>信诚新机遇混合(LOF)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>84.48</t>
+          <t>90.03</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0553</t>
+          <t>0.1068</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -4449,36 +5241,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>004671</t>
+          <t>006315</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中融核心成长灵活配置混合</t>
+          <t>中融策略优选混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>92.05</t>
+          <t>93.84</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0526</t>
+          <t>0.1059</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -4487,32 +5279,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010008</t>
+          <t>009490</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中融成长优选混合A</t>
+          <t>泰康科技创新一年定期开放混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>92.83</t>
+          <t>84.46</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0489</t>
+          <t>0.1047</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -4525,36 +5317,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>008422</t>
+          <t>002935</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中融研发创新混合A</t>
+          <t>泰康恒泰回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>32.66</t>
+          <t>22.78</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0418</t>
+          <t>0.0919</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -4563,36 +5355,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>011603</t>
+          <t>010937</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>兴业高端制造混合A</t>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>76.40</t>
+          <t>72.43</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0319</t>
+          <t>0.0905</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -4601,36 +5393,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001365</t>
+          <t>010987</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>大成正向回报灵活配置混合</t>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>75.86</t>
+          <t>91.36</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0228</t>
+          <t>0.0898</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -4639,36 +5431,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>010009</t>
+          <t>005824</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中融成长优选混合C</t>
+          <t>泰康颐享混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>92.83</t>
+          <t>23.36</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0204</t>
+          <t>0.0730</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -4677,36 +5469,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>011604</t>
+          <t>003145</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>兴业高端制造混合C</t>
+          <t>中融竞争优势股票</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>76.40</t>
+          <t>93.89</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0145</t>
+          <t>0.0615</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -4715,36 +5507,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>010988</t>
+          <t>004008</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中融鑫锐研究精选一年持有期混合C</t>
+          <t>中融鑫思路灵活配置混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>84.48</t>
+          <t>27.90</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0113</t>
+          <t>0.0607</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -4753,36 +5545,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>008423</t>
+          <t>011284</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中融研发创新混合C</t>
+          <t>中信保诚龙腾精选混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>32.66</t>
+          <t>78.02</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0112</t>
+          <t>0.0598</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -4791,36 +5583,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>010698</t>
+          <t>006209</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中融行业先锋6个月持有期混合C</t>
+          <t>中信保诚新蓝筹灵活配置混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>86.81</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0034</t>
+          <t>0.0477</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -4829,34 +5621,150 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>014641</t>
+          <t>004009</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>上投摩根行业轮动混合C</t>
+          <t>中融鑫思路灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>86.32</t>
+          <t>27.90</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
       </c>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011354</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融景盛一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010684</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4870,7 +5778,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4891,7 +5799,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -4921,36 +5829,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519704</t>
+          <t>008980</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银先进制造混合</t>
+          <t>中邮科技创新精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.19</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.00</t>
+          <t>81.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.2814</t>
+          <t>0.3177</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -4959,36 +5867,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010936</t>
+          <t>008981</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银施罗德均衡成长一年持有期混合A</t>
+          <t>中邮科技创新精选混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>57.02</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.04</t>
+          <t>81.86</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.6023</t>
+          <t>0.1372</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -4997,1096 +5905,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009402</t>
+          <t>005128</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>交银施罗德启明混合</t>
+          <t>华夏永康添福混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>51.98</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>74.81</t>
+          <t>26.52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.4087</t>
+          <t>0.0039</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011236</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>上投摩根行业睿选股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>27.11</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.35</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7374</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>370024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>上投摩根核心优选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>14.44</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.39</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4115</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>377530</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>上投摩根行业轮动混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>13.39</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>84.24</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3883</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>013883</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>交银施罗德启明混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>74.81</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1629</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011237</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>上投摩根行业睿选股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.35</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1537</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
         <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002707</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1186</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008347</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中信建投价值甄选混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>75.03</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0980</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>011446</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>长江新能源产业混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>88.04</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0769</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008422</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中融研发创新混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>82.80</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.82</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0751</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010937</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>交银施罗德均衡成长一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>82.04</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0742</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>014963</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>交银先进制造混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>76.00</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0736</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001173</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中欧瑾和灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0637</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>960006</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>上投摩根行业轮动混合H</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>84.24</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0635</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>004671</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中融核心成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>90.79</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0618</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>011603</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>兴业高端制造混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>86.69</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0453</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>010008</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中融成长优选混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>90.96</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0381</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>008348</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中信建投价值甄选混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>75.03</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0266</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>008423</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中融研发创新混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>82.80</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5.82</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0256</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>010009</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中融成长优选混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>90.96</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0223</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>011447</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>长江新能源产业混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>88.04</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0211</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>011604</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>兴业高端制造混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>86.69</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0206</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005569</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>中融智选红利股票A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>89.56</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>7.34</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0198</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>005536</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>渤海汇金量化成长混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>91.07</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0118</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>001174</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>中欧瑾和灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>014871</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>005570</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>中融智选红利股票C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>89.56</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>7.34</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>014641</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>上投摩根行业轮动混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>84.24</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>015057</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>上投摩根核心优选混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>92.39</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -6100,128 +5948,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.09</v>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1693</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.220000000000001</v>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>49</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.46</v>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>27</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.69</v>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.46</v>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.45</v>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688033-天宜上佳.xlsx
+++ b/数据整理/stocks/A股/科创板/688033-天宜上佳.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D2" t="n">
-        <v>8.09</v>
+        <v>8.869999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>9.220000000000001</v>
+        <v>8.09</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>15.46</v>
+        <v>9.220000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D5" t="n">
-        <v>9.69</v>
+        <v>15.46</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
-        <v>0.46</v>
+        <v>9.69</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -583,6 +600,2264 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7246</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6291</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>50.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5605</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010608</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7060</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3012</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012184</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>63.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2196</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013883</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2055</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>360016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大保德信行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1544</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成中小盘混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>63.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014311</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>47.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014963</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010609</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>69.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015320</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长江新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>66.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>62.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>63.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>61.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.35</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>62.36</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>61.89</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>62.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004009</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>30.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>75.29</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008758</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>26.75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004008</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>30.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>168105</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>九泰泰富灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014214</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>光大保德信核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002224</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中邮绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>71.83</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005091</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>74.56</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005090</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>74.56</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006557</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>015321</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长江新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>66.80</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012185</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>63.97</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008757</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>26.75</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002454</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>71.76</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014871</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>61.34</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013040</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>海富通欣润混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>21.11</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>71.76</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014312</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>大成优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>47.17</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004606</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>上投摩根优选多因子股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002453</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014215</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>光大保德信核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>013039</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>海富通欣润混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>21.11</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>69.63</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006556</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>大成中小盘混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>63.53</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>015688</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>九泰泰富灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1812,7 +4087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2778,7 +5053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4690,7 +6965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5772,7 +8047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5942,7 +8217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688033-天宜上佳.xlsx
+++ b/数据整理/stocks/A股/科创板/688033-天宜上佳.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>8.869999999999999</v>
+        <v>14.39</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D3" t="n">
-        <v>8.09</v>
+        <v>8.869999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>9.220000000000001</v>
+        <v>8.09</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>15.46</v>
+        <v>9.220000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D6" t="n">
-        <v>9.69</v>
+        <v>15.46</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>0.46</v>
+        <v>9.69</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -600,6 +617,1354 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1716</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2278</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7566</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014639</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7555</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>340007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全社会责任混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>45.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4931</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>43.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4690</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4176</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010608</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3130</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013883</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3029</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2425</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014963</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2145</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1890</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014640</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015320</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长江新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014352</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013726</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>惠升惠诚稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010609</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008848</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融智选对冲策略3个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>77.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.35</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015382</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方兴瑞趋势领航混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015381</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方兴瑞趋势领航混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014353</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015321</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长江新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>77.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014871</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013727</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>惠升惠诚稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2857,7 +4222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4087,7 +5452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5053,7 +6418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6965,7 +8330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8047,7 +9412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8217,7 +9582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
